--- a/just_effect_sizes.xlsx
+++ b/just_effect_sizes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qduan/Documents/GitHub/ptg-covid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890E301E-F1E6-0141-BEEB-88F752CC9398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CFF314-0678-B543-AEDF-D7454CA6C8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="78">
   <si>
     <t xml:space="preserve">Source </t>
   </si>
@@ -57,9 +57,6 @@
     <t>PTGI-SF</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t xml:space="preserve">Arnout and Al‐Sufyani (2021) </t>
   </si>
   <si>
@@ -174,18 +171,9 @@
     <t>Deitz (2024)</t>
   </si>
   <si>
-    <t>Deleuil (2022)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gaboardi et al. (2024) </t>
   </si>
   <si>
-    <t>Gesi et al. (2024)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kalaitzaki et al. (2024)</t>
-  </si>
-  <si>
     <t>Kapur et al. (2022)</t>
   </si>
   <si>
@@ -225,9 +213,6 @@
     <t xml:space="preserve">Uziel et al. (2021) </t>
   </si>
   <si>
-    <t>Israel: 364l Canada: 126l France 47</t>
-  </si>
-  <si>
     <t xml:space="preserve">Veronese et al. (2022) </t>
   </si>
   <si>
@@ -246,60 +231,27 @@
     <t xml:space="preserve">Zeng et al. (2023) </t>
   </si>
   <si>
-    <t>Zurko et al. (2022)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Paeizi et al. (2024) </t>
   </si>
   <si>
     <t xml:space="preserve">Foster et al. (2024) </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>three groups: (62.24), (47.40), (55.71)</t>
-  </si>
-  <si>
-    <t>(2.18), (3.18), (1.63)</t>
-  </si>
-  <si>
-    <t>(1.2-3.4)</t>
-  </si>
-  <si>
-    <t>Intervention group: (2.73), Control group (2.81)</t>
-  </si>
-  <si>
-    <t>Israel: 10.30, France:11.13, Canda:12.17</t>
-  </si>
-  <si>
-    <t>Israel: 17.83,France:20.50, Canda: 21.43</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kalaitzaki et al. (2021) </t>
   </si>
   <si>
     <t>Liu et al. (2021)</t>
   </si>
   <si>
-    <t>Li et al. (2022)</t>
-  </si>
-  <si>
     <t>Kowalski et al. (2021)</t>
   </si>
   <si>
     <t>Fino et al. (2023)</t>
   </si>
   <si>
-    <t xml:space="preserve">Ottavani et al. (2024) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Jiang et al. (2022) </t>
   </si>
   <si>
-    <t>outside province (18.07) within (18.47)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Song et al. (2024) </t>
   </si>
   <si>
@@ -309,26 +261,20 @@
     <t xml:space="preserve">Aggar et al. (2022) </t>
   </si>
   <si>
-    <t xml:space="preserve">Lafuenti et al. (2024) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5  PTGI values not sure which one to put in here? </t>
-  </si>
-  <si>
-    <t>same here. &lt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Peng et al. (2021) </t>
   </si>
   <si>
-    <t>Cui et al. (</t>
+    <t>Kalaitzaki et al. (2024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cui et al. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -337,6 +283,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -360,10 +312,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -691,10 +644,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>65.194999999999993</v>
@@ -709,10 +662,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>55.78</v>
@@ -727,14 +680,14 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <f>38.09*10.7/100+73.78*20.1/100+57.91*42.2/100+79.47*27/100</f>
-        <v>64.800330000000002</v>
+        <f>ROUND(38.09*10.7/100+73.78*20.1/100+57.91*42.2/100+79.47*27/100,2)</f>
+        <v>64.8</v>
       </c>
       <c r="D5">
         <v>10.44</v>
@@ -745,7 +698,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -762,10 +715,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>45.57</v>
@@ -779,10 +732,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>47.73</v>
@@ -796,10 +749,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>53.13</v>
@@ -814,7 +767,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -831,10 +784,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>78.400000000000006</v>
@@ -848,10 +801,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>96.26</v>
@@ -865,10 +818,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>47</v>
@@ -882,7 +835,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -899,7 +852,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -916,10 +869,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>47.95</v>
@@ -933,7 +886,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -950,10 +903,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>63.49</v>
@@ -967,10 +920,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>67.17</v>
@@ -984,10 +937,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>58.34</v>
@@ -1001,10 +954,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>71.75</v>
@@ -1018,7 +971,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -1035,10 +988,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>64.81</v>
@@ -1052,7 +1005,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>6</v>
@@ -1069,10 +1022,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>63.36</v>
@@ -1086,10 +1039,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26">
         <v>31.82</v>
@@ -1103,7 +1056,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -1120,10 +1073,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28">
         <v>51.44</v>
@@ -1137,10 +1090,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <v>62.83</v>
@@ -1154,14 +1107,14 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30">
-        <f>(53.97*253+45.56*176)/(253+176)</f>
-        <v>50.519743589743591</v>
+        <f>ROUND((53.97*253+45.56*176)/(253+176),2)</f>
+        <v>50.52</v>
       </c>
       <c r="D30">
         <v>20</v>
@@ -1173,10 +1126,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31">
         <v>75.47</v>
@@ -1190,7 +1143,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
       </c>
       <c r="C32">
         <v>70.91</v>
@@ -1204,7 +1160,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
       </c>
       <c r="C33">
         <v>69.95</v>
@@ -1218,7 +1177,17 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
         <v>40</v>
+      </c>
+      <c r="D34">
+        <f>1.35 * 16</f>
+        <v>21.6</v>
       </c>
       <c r="E34">
         <v>152</v>
@@ -1226,13 +1195,18 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
       </c>
       <c r="C35">
-        <v>73.92</v>
+        <f>73.92 /25 * 21</f>
+        <v>62.092799999999997</v>
       </c>
       <c r="D35">
-        <v>22.12</v>
+        <f>SQRT(22.1^2 *(21/25)^2 )</f>
+        <v>18.564</v>
       </c>
       <c r="E35">
         <v>692</v>
@@ -1240,7 +1214,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
       </c>
       <c r="C36">
         <v>43.05</v>
@@ -1254,13 +1231,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>73</v>
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1">
+        <v>34.51</v>
+      </c>
+      <c r="D37" s="1">
+        <v>25.46</v>
       </c>
       <c r="E37">
         <v>35</v>
@@ -1268,14 +1248,17 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
       </c>
       <c r="C38">
         <f xml:space="preserve"> 3.01 * 21</f>
         <v>63.209999999999994</v>
       </c>
       <c r="D38">
-        <v>0.81</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>183</v>
@@ -1283,13 +1266,18 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1">
+        <f>2.3 * 10</f>
+        <v>23</v>
+      </c>
+      <c r="D39" s="1">
+        <f xml:space="preserve"> SQRT(0.51^2 * 10^2)</f>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E39">
         <v>436</v>
@@ -1297,546 +1285,590 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>73</v>
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <f xml:space="preserve"> 3.62 *10</f>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D40">
+        <f>SQRT(1.22^2 * 100)</f>
+        <v>12.2</v>
       </c>
       <c r="E40">
-        <v>892</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41">
-        <f xml:space="preserve"> 3.62 *21</f>
-        <v>76.02</v>
-      </c>
-      <c r="D41">
-        <v>1.22</v>
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1">
+        <v>62.24</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2.1800000000000002</v>
       </c>
       <c r="E41">
-        <v>295</v>
+        <v>429</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>47.4</v>
+      </c>
+      <c r="D42">
+        <v>27</v>
       </c>
       <c r="E42">
-        <v>931</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>75</v>
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1">
+        <f>2.169 * 21</f>
+        <v>45.548999999999999</v>
+      </c>
+      <c r="D43" s="1">
+        <f>SQRT( 1.299^2 * 21^2)</f>
+        <v>27.279</v>
       </c>
       <c r="E43">
-        <v>429</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44">
-        <v>47.4</v>
-      </c>
-      <c r="D44">
-        <v>27</v>
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="1">
+        <f>45.4545</f>
+        <v>45.454500000000003</v>
+      </c>
+      <c r="D44" s="1">
+        <v>25.452000000000002</v>
       </c>
       <c r="E44">
-        <v>213</v>
+        <v>575</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>37.085999999999999</v>
+      </c>
+      <c r="D45">
+        <v>58.860349999999997</v>
       </c>
       <c r="E45">
-        <v>369</v>
+        <v>669</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>73</v>
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <f xml:space="preserve"> 4.11 * 10</f>
+        <v>41.1</v>
+      </c>
+      <c r="D46">
+        <f>SQRT(0.84^2 * 10^2)</f>
+        <v>8.3999999999999986</v>
       </c>
       <c r="E46">
-        <v>575</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <f xml:space="preserve"> 3.98 * 21</f>
+        <v>83.58</v>
+      </c>
+      <c r="D47">
+        <f>SQRT(0.73^2 * 21^2)</f>
+        <v>15.33</v>
       </c>
       <c r="E47">
-        <v>669</v>
+        <v>760</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <f xml:space="preserve"> 2.74 * 21</f>
+        <v>57.540000000000006</v>
+      </c>
+      <c r="D48">
+        <f>SQRT(1.21^2 * 21^2)</f>
+        <v>25.41</v>
       </c>
       <c r="E48">
-        <v>172</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
       </c>
       <c r="C49">
-        <f xml:space="preserve"> 3.98 * 21</f>
-        <v>83.58</v>
+        <v>58.09</v>
       </c>
       <c r="D49">
-        <v>0.73</v>
+        <v>9.69</v>
       </c>
       <c r="E49">
-        <v>760</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
       </c>
       <c r="C50">
-        <f xml:space="preserve"> 2.74 * 21</f>
-        <v>57.540000000000006</v>
+        <f xml:space="preserve"> 3.25 * 21</f>
+        <v>68.25</v>
       </c>
       <c r="D50">
-        <v>1.21</v>
+        <f xml:space="preserve"> SQRT(2.27^2 * 21^2)</f>
+        <v>47.67</v>
       </c>
       <c r="E50">
-        <v>120</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
       </c>
       <c r="C51">
-        <v>58.09</v>
-      </c>
-      <c r="D51">
-        <v>9.69</v>
+        <f xml:space="preserve"> 2.4 * 21</f>
+        <v>50.4</v>
+      </c>
+      <c r="D51" s="1">
+        <f>SQRT(1.2^2 * 21^2)</f>
+        <v>25.2</v>
       </c>
       <c r="E51">
-        <v>253</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52">
-        <f xml:space="preserve"> 3.25 * 21</f>
-        <v>68.25</v>
-      </c>
-      <c r="D52">
-        <v>2.27</v>
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="1">
+        <v>67.489999999999995</v>
+      </c>
+      <c r="D52" s="1">
+        <f>2.73</f>
+        <v>2.73</v>
       </c>
       <c r="E52">
-        <v>4934</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
       </c>
       <c r="C53">
-        <f xml:space="preserve"> 2.4 * 21</f>
-        <v>50.4</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>76</v>
+        <v>50.98</v>
+      </c>
+      <c r="D53">
+        <v>25.3</v>
       </c>
       <c r="E53">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
       </c>
       <c r="C54" s="1">
-        <v>67.489999999999995</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54">
-        <v>109</v>
+        <v>17.829999999999998</v>
+      </c>
+      <c r="D54" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="E54" s="1">
+        <v>364</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
       </c>
       <c r="C55">
-        <v>50.98</v>
+        <f xml:space="preserve"> 3.62 * 10</f>
+        <v>36.200000000000003</v>
       </c>
       <c r="D55">
-        <v>25.3</v>
+        <f>SQRT(0.9^2 * 10^2)</f>
+        <v>9</v>
       </c>
       <c r="E55">
-        <v>175</v>
+        <v>441</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="1">
+        <f>4.2*21</f>
+        <v>88.2</v>
+      </c>
+      <c r="D56">
+        <f xml:space="preserve"> SQRT(0.99^2* 21^2)</f>
+        <v>20.79</v>
+      </c>
+      <c r="E56">
+        <v>1711</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
       </c>
       <c r="C57">
-        <f xml:space="preserve"> 3.62 * 21</f>
-        <v>76.02</v>
+        <v>37.86</v>
       </c>
       <c r="D57">
-        <v>0.9</v>
+        <v>26.28</v>
       </c>
       <c r="E57">
-        <v>441</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
       </c>
       <c r="C58" s="1">
-        <f>4.2*21</f>
-        <v>88.2</v>
+        <f>43.8 /16 *21</f>
+        <v>57.487499999999997</v>
       </c>
       <c r="D58">
-        <v>0.99</v>
+        <f>SQRT(14.65^2 * (21/16)^2)</f>
+        <v>19.228125000000002</v>
       </c>
       <c r="E58">
-        <v>1711</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
       </c>
       <c r="C59">
-        <v>37.86</v>
+        <f xml:space="preserve"> 76.74 / 25 *21</f>
+        <v>64.461600000000004</v>
       </c>
       <c r="D59">
-        <v>26.28</v>
+        <f>SQRT(27.13^2 * (21/25)^2)</f>
+        <v>22.789199999999997</v>
       </c>
       <c r="E59">
-        <v>66</v>
+        <v>589</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
       </c>
       <c r="C60" s="1">
-        <v>43.8</v>
+        <v>25.19</v>
       </c>
       <c r="D60">
-        <v>14.65</v>
+        <v>9.48</v>
       </c>
       <c r="E60">
-        <v>100</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61">
-        <v>76.739999999999995</v>
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="1">
+        <f>2.6*21</f>
+        <v>54.6</v>
       </c>
       <c r="D61">
-        <v>27.13</v>
+        <v>0.52</v>
       </c>
       <c r="E61">
-        <v>589</v>
+        <v>700</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
       </c>
       <c r="C62" s="1">
-        <v>25.19</v>
+        <v>61.03</v>
       </c>
       <c r="D62">
-        <v>9.48</v>
+        <v>21.28</v>
       </c>
       <c r="E62">
-        <v>2267</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="1">
+        <v>46.6</v>
+      </c>
+      <c r="D63">
+        <v>24.61</v>
       </c>
       <c r="E63">
-        <v>1206</v>
+        <v>673</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
       </c>
       <c r="C64" s="1">
-        <f>2.6*21</f>
-        <v>54.6</v>
+        <f>3.18*21</f>
+        <v>66.78</v>
       </c>
       <c r="D64">
-        <v>0.52</v>
+        <v>1.06</v>
       </c>
       <c r="E64">
-        <v>700</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
       </c>
       <c r="C65" s="1">
-        <v>61.03</v>
+        <f>2.24*21</f>
+        <v>47.040000000000006</v>
       </c>
       <c r="D65">
-        <v>21.28</v>
+        <v>1.24</v>
       </c>
       <c r="E65">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C66" s="1">
-        <v>46.6</v>
-      </c>
-      <c r="D66">
-        <v>24.61</v>
+        <v>70</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="3">
+        <v>37.1</v>
+      </c>
+      <c r="D66" s="1">
+        <v>24.7</v>
       </c>
       <c r="E66">
-        <v>673</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
       </c>
       <c r="C67" s="1">
-        <f>3.18*21</f>
-        <v>66.78</v>
-      </c>
-      <c r="D67">
-        <v>1.06</v>
-      </c>
-      <c r="E67">
-        <v>200</v>
+        <v>97.09</v>
+      </c>
+      <c r="D67" s="1">
+        <v>18.27</v>
+      </c>
+      <c r="E67" s="2">
+        <v>2750</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <f>3.65*21</f>
+        <v>76.649999999999991</v>
+      </c>
+      <c r="D68">
+        <v>0.77</v>
       </c>
       <c r="E68">
-        <v>879</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="1">
-        <f>2.24*21</f>
-        <v>47.040000000000006</v>
+        <v>73</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>76.180000000000007</v>
       </c>
       <c r="D69">
-        <v>1.24</v>
+        <v>16.004000000000001</v>
       </c>
       <c r="E69">
-        <v>179</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>21.6</v>
+      </c>
+      <c r="D70">
+        <v>11.72</v>
       </c>
       <c r="E70">
-        <v>202</v>
+        <v>767</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>65.650000000000006</v>
+      </c>
+      <c r="D71">
+        <v>11.5</v>
       </c>
       <c r="E71">
-        <v>200</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" s="1">
-        <v>97.09</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E72" s="2">
-        <v>2750</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73">
-        <f>3.65*21</f>
-        <v>76.649999999999991</v>
-      </c>
-      <c r="D73">
-        <v>0.77</v>
-      </c>
-      <c r="E73">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C74">
-        <v>76.180000000000007</v>
-      </c>
-      <c r="D74">
-        <v>16.004000000000001</v>
-      </c>
-      <c r="E74">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C75">
-        <v>21.6</v>
-      </c>
-      <c r="D75">
-        <v>11.72</v>
-      </c>
-      <c r="E75">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E76">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C77">
-        <v>65.650000000000006</v>
-      </c>
-      <c r="D77">
-        <v>11.5</v>
-      </c>
-      <c r="E77">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C78">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72">
         <v>70.53</v>
       </c>
-      <c r="D78">
+      <c r="D72">
         <v>17.260000000000002</v>
       </c>
-      <c r="E78">
+      <c r="E72">
         <v>179</v>
       </c>
     </row>

--- a/just_effect_sizes.xlsx
+++ b/just_effect_sizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qduan/Documents/GitHub/ptg-covid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CFF314-0678-B543-AEDF-D7454CA6C8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444918DF-FA3C-7443-811F-BA965BAE2E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -594,17 +594,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="36.5" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">

--- a/just_effect_sizes.xlsx
+++ b/just_effect_sizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qduan/Documents/GitHub/ptg-covid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444918DF-FA3C-7443-811F-BA965BAE2E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A564956-3461-6640-84D4-615212F52904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
